--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyentc\Documents\GitHub\lottery\server\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E42752-8497-4ADF-9E7C-8863D82A53D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="500">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,1086 +39,1514 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>000001</t>
+  </si>
+  <si>
     <t>000003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000018</t>
   </si>
   <si>
     <t>000019</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000026</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000030</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000031</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000032</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000033</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000034</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000039</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000044</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000046</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000047</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000050</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000051</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000052</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000054</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000055</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000057</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000058</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000059</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000060</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000061</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000062</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000064</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000065</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000069</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000070</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000071</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000072</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000073</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000074</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000077</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000078</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000079</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000080</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000081</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000084</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000085</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000086</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000087</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000088</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000089</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000093</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000095</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000096</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000097</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000098</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>000109</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000209</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000208</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000207</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000211</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000306</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000307</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000308</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000309</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OSAKA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈勒普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科维托娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡普</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝尔滕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科贝尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沃兹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡萨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凯斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅尔滕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王蔷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加西亚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆古鲁扎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥胖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本西奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿扎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢淑薇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辛吉斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞莱斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨拉波娃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>维基奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佩内塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃拉尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>德约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳达尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费德勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小兹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大师兄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安德森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西里奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蒂姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锦织圭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊斯内尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡恰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丘里奇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福格尼尼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西西帕斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拉奥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迪米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戈芬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿古特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑玄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西蒙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约翰逊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米尔曼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>克里赞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>索萨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贝克尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿加西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布莱恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穆雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦林卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马胡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特松佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴迪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红楼梦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林黛玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>薛宝钗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾宝玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾元春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>惜春</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李纨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妙玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史湘云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王熙凤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巧姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦可卿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴雯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麝月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袭人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳鸯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪雁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫鹃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>碧痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金川</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思琪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抱琴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾赦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾敬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾琏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾珍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芳官</t>
-  </si>
-  <si>
-    <t>藕官</t>
-  </si>
-  <si>
-    <t>药官</t>
-  </si>
-  <si>
-    <t>蕊官</t>
-  </si>
-  <si>
-    <t>玉官</t>
-  </si>
-  <si>
-    <t>龄官</t>
-  </si>
-  <si>
-    <t>宝官</t>
-  </si>
-  <si>
-    <t>茄官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>琪官</t>
-  </si>
-  <si>
-    <t>碧昂丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麦丹娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布兰妮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蕾哈娜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿黛尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAGA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水果姐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贾老板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火星哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>林肯公园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾薇儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泰勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MUSIC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000110</t>
+  </si>
+  <si>
+    <t>000111</t>
+  </si>
+  <si>
+    <t>000112</t>
+  </si>
+  <si>
+    <t>000113</t>
+  </si>
+  <si>
+    <t>000114</t>
+  </si>
+  <si>
+    <t>000115</t>
+  </si>
+  <si>
+    <t>000116</t>
+  </si>
+  <si>
+    <t>000117</t>
+  </si>
+  <si>
+    <t>000118</t>
+  </si>
+  <si>
+    <t>000119</t>
+  </si>
+  <si>
+    <t>000120</t>
+  </si>
+  <si>
+    <t>000121</t>
+  </si>
+  <si>
+    <t>000122</t>
+  </si>
+  <si>
+    <t>000123</t>
+  </si>
+  <si>
+    <t>000124</t>
+  </si>
+  <si>
+    <t>000125</t>
+  </si>
+  <si>
+    <t>000126</t>
+  </si>
+  <si>
+    <t>000127</t>
+  </si>
+  <si>
+    <t>000128</t>
+  </si>
+  <si>
+    <t>000129</t>
+  </si>
+  <si>
+    <t>000130</t>
+  </si>
+  <si>
+    <t>000131</t>
+  </si>
+  <si>
+    <t>000132</t>
+  </si>
+  <si>
+    <t>HuongNTM</t>
+  </si>
+  <si>
+    <t>XuanLTA</t>
+  </si>
+  <si>
+    <t>DuyLA</t>
+  </si>
+  <si>
+    <t>NhiNTD</t>
+  </si>
+  <si>
+    <t>SongPT</t>
+  </si>
+  <si>
+    <t>DuyN</t>
+  </si>
+  <si>
+    <t>MinhHN</t>
+  </si>
+  <si>
+    <t>LongDP</t>
+  </si>
+  <si>
+    <t>NhuPQ</t>
+  </si>
+  <si>
+    <t>QuyenDTT</t>
+  </si>
+  <si>
+    <t>DungHMH</t>
+  </si>
+  <si>
+    <t>ThuNNM</t>
+  </si>
+  <si>
+    <t>PhucLT</t>
+  </si>
+  <si>
+    <t>TrangHTM</t>
+  </si>
+  <si>
+    <t>DinhB</t>
+  </si>
+  <si>
+    <t>PhongGT</t>
+  </si>
+  <si>
+    <t>MinhPC</t>
+  </si>
+  <si>
+    <t>TuHQ</t>
+  </si>
+  <si>
+    <t>HanPG</t>
+  </si>
+  <si>
+    <t>DungNT1</t>
+  </si>
+  <si>
+    <t>HuyNVT</t>
+  </si>
+  <si>
+    <t>LoiPT</t>
+  </si>
+  <si>
+    <t>NhuMNQ</t>
+  </si>
+  <si>
+    <t>ChuongLV</t>
+  </si>
+  <si>
+    <t>PhucNDH</t>
+  </si>
+  <si>
+    <t>TrungMT</t>
+  </si>
+  <si>
+    <t>DatTM</t>
+  </si>
+  <si>
+    <t>QuangTM</t>
+  </si>
+  <si>
+    <t>PhongNTH</t>
+  </si>
+  <si>
+    <t>TrucNN</t>
+  </si>
+  <si>
+    <t>DienLV</t>
+  </si>
+  <si>
+    <t>QuyenNT</t>
+  </si>
+  <si>
+    <t>TienTB</t>
+  </si>
+  <si>
+    <t>HuyLQ</t>
+  </si>
+  <si>
+    <t>KhoiPG</t>
+  </si>
+  <si>
+    <t>TranVTH</t>
+  </si>
+  <si>
+    <t>TranPQ</t>
+  </si>
+  <si>
+    <t>DangLHH</t>
+  </si>
+  <si>
+    <t>HangVTD</t>
+  </si>
+  <si>
+    <t>UyenNNP</t>
+  </si>
+  <si>
+    <t>NhanNKT</t>
+  </si>
+  <si>
+    <t>ChiBL</t>
+  </si>
+  <si>
+    <t>KietNA</t>
+  </si>
+  <si>
+    <t>TrungNH</t>
+  </si>
+  <si>
+    <t>TamNV</t>
+  </si>
+  <si>
+    <t>QuyLV</t>
+  </si>
+  <si>
+    <t>ThangTT</t>
+  </si>
+  <si>
+    <t>OanhLTH</t>
+  </si>
+  <si>
+    <t>AnhTT</t>
+  </si>
+  <si>
+    <t>AnhTD</t>
+  </si>
+  <si>
+    <t>QuangDN</t>
+  </si>
+  <si>
+    <t>KienHT</t>
+  </si>
+  <si>
+    <t>ThienND</t>
+  </si>
+  <si>
+    <t>ThyTLH</t>
+  </si>
+  <si>
+    <t>QuynhPN</t>
+  </si>
+  <si>
+    <t>ThanhNP</t>
+  </si>
+  <si>
+    <t>TamNT</t>
+  </si>
+  <si>
+    <t>DuyDT</t>
+  </si>
+  <si>
+    <t>BaoLNG</t>
+  </si>
+  <si>
+    <t>ThanhTT</t>
+  </si>
+  <si>
+    <t>LinhPTT</t>
+  </si>
+  <si>
+    <t>MinhNT</t>
+  </si>
+  <si>
+    <t>DuyPV</t>
+  </si>
+  <si>
+    <t>GiangVPT</t>
+  </si>
+  <si>
+    <t>NgocLTB</t>
+  </si>
+  <si>
+    <t>NhanTCH</t>
+  </si>
+  <si>
+    <t>YenLTH</t>
+  </si>
+  <si>
+    <t>ThuNDA</t>
+  </si>
+  <si>
+    <t>ThaoTTP</t>
+  </si>
+  <si>
+    <t>PhuDT</t>
+  </si>
+  <si>
+    <t>QuyDD</t>
+  </si>
+  <si>
+    <t>LucHDD</t>
+  </si>
+  <si>
+    <t>LyTPK</t>
+  </si>
+  <si>
+    <t>QuyenVTH</t>
+  </si>
+  <si>
+    <t>ChauDHN</t>
+  </si>
+  <si>
+    <t>NamVH1</t>
+  </si>
+  <si>
+    <t>ManTT</t>
+  </si>
+  <si>
+    <t>HoangVH</t>
+  </si>
+  <si>
+    <t>BaoNC</t>
+  </si>
+  <si>
+    <t>HaoNP</t>
+  </si>
+  <si>
+    <t>TuanNQ</t>
+  </si>
+  <si>
+    <t>HungHP</t>
+  </si>
+  <si>
+    <t>ThanhNC</t>
+  </si>
+  <si>
+    <t>HoaDT</t>
+  </si>
+  <si>
+    <t>ThanhDV</t>
+  </si>
+  <si>
+    <t>ChuongNPN</t>
+  </si>
+  <si>
+    <t>AnTTHT</t>
+  </si>
+  <si>
+    <t>BaoBN</t>
+  </si>
+  <si>
+    <t>MinhDNT</t>
+  </si>
+  <si>
+    <t>ThuBTA</t>
+  </si>
+  <si>
+    <t>HaoNV</t>
+  </si>
+  <si>
+    <t>LinhNC</t>
+  </si>
+  <si>
+    <t>TaiCV</t>
+  </si>
+  <si>
+    <t>KhueTN</t>
+  </si>
+  <si>
+    <t>MinhDD</t>
+  </si>
+  <si>
+    <t>MinhHX</t>
+  </si>
+  <si>
+    <t>QuyNX</t>
+  </si>
+  <si>
+    <t>BaoNQB</t>
+  </si>
+  <si>
+    <t>HuyHH</t>
+  </si>
+  <si>
+    <t>HauHT</t>
+  </si>
+  <si>
+    <t>TrucLK</t>
+  </si>
+  <si>
+    <t>TuyenATT</t>
+  </si>
+  <si>
+    <t>HungHV</t>
+  </si>
+  <si>
+    <t>NghiaHQ</t>
+  </si>
+  <si>
+    <t>HiepNC</t>
+  </si>
+  <si>
+    <t>DuyenMTT</t>
+  </si>
+  <si>
+    <t>ChauLTN</t>
+  </si>
+  <si>
+    <t>DuyVK</t>
+  </si>
+  <si>
+    <t>QuanHM</t>
+  </si>
+  <si>
+    <t>LyTNY</t>
+  </si>
+  <si>
+    <t>MinhTL</t>
+  </si>
+  <si>
+    <t>ToanKH</t>
+  </si>
+  <si>
+    <t>MyTC</t>
+  </si>
+  <si>
+    <t>DuyTT</t>
+  </si>
+  <si>
+    <t>HoanNH</t>
+  </si>
+  <si>
+    <t>LamLTC</t>
+  </si>
+  <si>
+    <t>YenNH</t>
+  </si>
+  <si>
+    <t>NhungNVA</t>
+  </si>
+  <si>
+    <t>HungBT</t>
+  </si>
+  <si>
+    <t>VanNNA</t>
+  </si>
+  <si>
+    <t>LamNQ</t>
+  </si>
+  <si>
+    <t>BacHX</t>
+  </si>
+  <si>
+    <t>TrucBTB</t>
+  </si>
+  <si>
+    <t>KhangBM</t>
+  </si>
+  <si>
+    <t>ThinhNLP</t>
+  </si>
+  <si>
+    <t>DungN</t>
+  </si>
+  <si>
+    <t>PhuongND</t>
+  </si>
+  <si>
+    <t>NguyenHQ</t>
+  </si>
+  <si>
+    <t>TienVTM</t>
+  </si>
+  <si>
+    <t>LinhPTM</t>
+  </si>
+  <si>
+    <t>DuongNT</t>
+  </si>
+  <si>
+    <t>HoaLV</t>
+  </si>
+  <si>
+    <t>TranHTB</t>
+  </si>
+  <si>
+    <t>AnhLT</t>
+  </si>
+  <si>
+    <t>PhongVT</t>
+  </si>
+  <si>
+    <t>NhanPT</t>
+  </si>
+  <si>
+    <t>DatDT</t>
+  </si>
+  <si>
+    <t>LongVTT</t>
+  </si>
+  <si>
+    <t>VinhDV</t>
+  </si>
+  <si>
+    <t>GiangNPM</t>
+  </si>
+  <si>
+    <t>HoanLV</t>
+  </si>
+  <si>
+    <t>QuanND</t>
+  </si>
+  <si>
+    <t>PhuongVN</t>
+  </si>
+  <si>
+    <t>LocHT</t>
+  </si>
+  <si>
+    <t>KhoaND</t>
+  </si>
+  <si>
+    <t>ThoaNTB</t>
+  </si>
+  <si>
+    <t>TienNM</t>
+  </si>
+  <si>
+    <t>QuynhDT</t>
+  </si>
+  <si>
+    <t>NghiaNH</t>
+  </si>
+  <si>
+    <t>QuanPNH</t>
+  </si>
+  <si>
+    <t>TrinhPTD</t>
+  </si>
+  <si>
+    <t>TrinhTN</t>
+  </si>
+  <si>
+    <t>NguyetHT</t>
+  </si>
+  <si>
+    <t>KhoaLM</t>
+  </si>
+  <si>
+    <t>CuongND</t>
+  </si>
+  <si>
+    <t>TrietNM</t>
+  </si>
+  <si>
+    <t>NhungNTT</t>
+  </si>
+  <si>
+    <t>HuyBK</t>
+  </si>
+  <si>
+    <t>NganPVH</t>
+  </si>
+  <si>
+    <t>HoangPT</t>
+  </si>
+  <si>
+    <t>NguyenTC</t>
+  </si>
+  <si>
+    <t>HienDTM</t>
+  </si>
+  <si>
+    <t>TaiHV</t>
+  </si>
+  <si>
+    <t>000133</t>
+  </si>
+  <si>
+    <t>000134</t>
+  </si>
+  <si>
+    <t>000135</t>
+  </si>
+  <si>
+    <t>000136</t>
+  </si>
+  <si>
+    <t>000137</t>
+  </si>
+  <si>
+    <t>000138</t>
+  </si>
+  <si>
+    <t>000139</t>
+  </si>
+  <si>
+    <t>000140</t>
+  </si>
+  <si>
+    <t>000141</t>
+  </si>
+  <si>
+    <t>000142</t>
+  </si>
+  <si>
+    <t>000143</t>
+  </si>
+  <si>
+    <t>000144</t>
+  </si>
+  <si>
+    <t>000145</t>
+  </si>
+  <si>
+    <t>000146</t>
+  </si>
+  <si>
+    <t>000147</t>
+  </si>
+  <si>
+    <t>000148</t>
+  </si>
+  <si>
+    <t>000149</t>
+  </si>
+  <si>
+    <t>000150</t>
+  </si>
+  <si>
+    <t>000151</t>
+  </si>
+  <si>
+    <t>000152</t>
+  </si>
+  <si>
+    <t>000153</t>
+  </si>
+  <si>
+    <t>000154</t>
+  </si>
+  <si>
+    <t>000155</t>
+  </si>
+  <si>
+    <t>000156</t>
+  </si>
+  <si>
+    <t>000157</t>
+  </si>
+  <si>
+    <t>000158</t>
+  </si>
+  <si>
+    <t>000159</t>
+  </si>
+  <si>
+    <t>000160</t>
+  </si>
+  <si>
+    <t>000161</t>
+  </si>
+  <si>
+    <t>000162</t>
+  </si>
+  <si>
+    <t>000163</t>
+  </si>
+  <si>
+    <t>000164</t>
+  </si>
+  <si>
+    <t>000165</t>
+  </si>
+  <si>
+    <t>000166</t>
+  </si>
+  <si>
+    <t>000167</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>D19</t>
+  </si>
+  <si>
+    <t>D20</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>D22</t>
+  </si>
+  <si>
+    <t>D23</t>
+  </si>
+  <si>
+    <t>D24</t>
+  </si>
+  <si>
+    <t>D25</t>
+  </si>
+  <si>
+    <t>D26</t>
+  </si>
+  <si>
+    <t>D27</t>
+  </si>
+  <si>
+    <t>D28</t>
+  </si>
+  <si>
+    <t>D29</t>
+  </si>
+  <si>
+    <t>D30</t>
+  </si>
+  <si>
+    <t>D31</t>
+  </si>
+  <si>
+    <t>D32</t>
+  </si>
+  <si>
+    <t>D33</t>
+  </si>
+  <si>
+    <t>D34</t>
+  </si>
+  <si>
+    <t>D35</t>
+  </si>
+  <si>
+    <t>D36</t>
+  </si>
+  <si>
+    <t>D37</t>
+  </si>
+  <si>
+    <t>D38</t>
+  </si>
+  <si>
+    <t>D39</t>
+  </si>
+  <si>
+    <t>D40</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D42</t>
+  </si>
+  <si>
+    <t>D43</t>
+  </si>
+  <si>
+    <t>D44</t>
+  </si>
+  <si>
+    <t>D45</t>
+  </si>
+  <si>
+    <t>D46</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>D49</t>
+  </si>
+  <si>
+    <t>D50</t>
+  </si>
+  <si>
+    <t>D51</t>
+  </si>
+  <si>
+    <t>D52</t>
+  </si>
+  <si>
+    <t>D53</t>
+  </si>
+  <si>
+    <t>D54</t>
+  </si>
+  <si>
+    <t>D55</t>
+  </si>
+  <si>
+    <t>D56</t>
+  </si>
+  <si>
+    <t>D57</t>
+  </si>
+  <si>
+    <t>D58</t>
+  </si>
+  <si>
+    <t>D59</t>
+  </si>
+  <si>
+    <t>D60</t>
+  </si>
+  <si>
+    <t>D61</t>
+  </si>
+  <si>
+    <t>D62</t>
+  </si>
+  <si>
+    <t>D63</t>
+  </si>
+  <si>
+    <t>D64</t>
+  </si>
+  <si>
+    <t>D65</t>
+  </si>
+  <si>
+    <t>D66</t>
+  </si>
+  <si>
+    <t>D67</t>
+  </si>
+  <si>
+    <t>D68</t>
+  </si>
+  <si>
+    <t>D69</t>
+  </si>
+  <si>
+    <t>D70</t>
+  </si>
+  <si>
+    <t>D71</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>D73</t>
+  </si>
+  <si>
+    <t>D74</t>
+  </si>
+  <si>
+    <t>D75</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>D77</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>D79</t>
+  </si>
+  <si>
+    <t>D80</t>
+  </si>
+  <si>
+    <t>D81</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>D83</t>
+  </si>
+  <si>
+    <t>D84</t>
+  </si>
+  <si>
+    <t>D85</t>
+  </si>
+  <si>
+    <t>D86</t>
+  </si>
+  <si>
+    <t>D87</t>
+  </si>
+  <si>
+    <t>D88</t>
+  </si>
+  <si>
+    <t>D89</t>
+  </si>
+  <si>
+    <t>D90</t>
+  </si>
+  <si>
+    <t>D91</t>
+  </si>
+  <si>
+    <t>D92</t>
+  </si>
+  <si>
+    <t>D93</t>
+  </si>
+  <si>
+    <t>D94</t>
+  </si>
+  <si>
+    <t>D95</t>
+  </si>
+  <si>
+    <t>D96</t>
+  </si>
+  <si>
+    <t>D97</t>
+  </si>
+  <si>
+    <t>D98</t>
+  </si>
+  <si>
+    <t>D99</t>
+  </si>
+  <si>
+    <t>D100</t>
+  </si>
+  <si>
+    <t>D101</t>
+  </si>
+  <si>
+    <t>D102</t>
+  </si>
+  <si>
+    <t>D103</t>
+  </si>
+  <si>
+    <t>D104</t>
+  </si>
+  <si>
+    <t>D105</t>
+  </si>
+  <si>
+    <t>D106</t>
+  </si>
+  <si>
+    <t>D107</t>
+  </si>
+  <si>
+    <t>D108</t>
+  </si>
+  <si>
+    <t>D109</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>D111</t>
+  </si>
+  <si>
+    <t>D112</t>
+  </si>
+  <si>
+    <t>D113</t>
+  </si>
+  <si>
+    <t>D114</t>
+  </si>
+  <si>
+    <t>D115</t>
+  </si>
+  <si>
+    <t>D116</t>
+  </si>
+  <si>
+    <t>D117</t>
+  </si>
+  <si>
+    <t>D118</t>
+  </si>
+  <si>
+    <t>D119</t>
+  </si>
+  <si>
+    <t>D120</t>
+  </si>
+  <si>
+    <t>D121</t>
+  </si>
+  <si>
+    <t>D122</t>
+  </si>
+  <si>
+    <t>D123</t>
+  </si>
+  <si>
+    <t>D124</t>
+  </si>
+  <si>
+    <t>D125</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>D127</t>
+  </si>
+  <si>
+    <t>D128</t>
+  </si>
+  <si>
+    <t>D129</t>
+  </si>
+  <si>
+    <t>D130</t>
+  </si>
+  <si>
+    <t>D131</t>
+  </si>
+  <si>
+    <t>D132</t>
+  </si>
+  <si>
+    <t>D133</t>
+  </si>
+  <si>
+    <t>D134</t>
+  </si>
+  <si>
+    <t>D135</t>
+  </si>
+  <si>
+    <t>D136</t>
+  </si>
+  <si>
+    <t>D137</t>
+  </si>
+  <si>
+    <t>D138</t>
+  </si>
+  <si>
+    <t>D139</t>
+  </si>
+  <si>
+    <t>D140</t>
+  </si>
+  <si>
+    <t>D141</t>
+  </si>
+  <si>
+    <t>D142</t>
+  </si>
+  <si>
+    <t>D143</t>
+  </si>
+  <si>
+    <t>D144</t>
+  </si>
+  <si>
+    <t>D145</t>
+  </si>
+  <si>
+    <t>D146</t>
+  </si>
+  <si>
+    <t>D147</t>
+  </si>
+  <si>
+    <t>D148</t>
+  </si>
+  <si>
+    <t>D149</t>
+  </si>
+  <si>
+    <t>D150</t>
+  </si>
+  <si>
+    <t>D151</t>
+  </si>
+  <si>
+    <t>D152</t>
+  </si>
+  <si>
+    <t>D153</t>
+  </si>
+  <si>
+    <t>D154</t>
+  </si>
+  <si>
+    <t>D155</t>
+  </si>
+  <si>
+    <t>D156</t>
+  </si>
+  <si>
+    <t>D157</t>
+  </si>
+  <si>
+    <t>D158</t>
+  </si>
+  <si>
+    <t>D159</t>
+  </si>
+  <si>
+    <t>D160</t>
+  </si>
+  <si>
+    <t>D161</t>
+  </si>
+  <si>
+    <t>D162</t>
+  </si>
+  <si>
+    <t>D163</t>
+  </si>
+  <si>
+    <t>D164</t>
+  </si>
+  <si>
+    <t>D165</t>
+  </si>
+  <si>
+    <t>D166</t>
+  </si>
+  <si>
+    <t>D167</t>
+  </si>
+  <si>
+    <t>D168</t>
+  </si>
+  <si>
+    <t>D169</t>
+  </si>
+  <si>
+    <t>D170</t>
+  </si>
+  <si>
+    <t>D171</t>
+  </si>
+  <si>
+    <t>D172</t>
+  </si>
+  <si>
+    <t>D173</t>
+  </si>
+  <si>
+    <t>D174</t>
+  </si>
+  <si>
+    <t>D175</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1137,6 +1571,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1177,104 +1623,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{EF5FB1CD-05AA-4479-803A-61136CFB5374}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B3F86"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B3F86"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B3F86"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B3F86"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Câu trả lời biểu mẫu 1-style" pivot="0" count="4" xr9:uid="{D0D19D90-1509-4A24-B67F-D3332CBC1A04}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="firstRowStripe" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="Câu trả lời biểu mẫu 1-style 2" pivot="0" count="2" xr9:uid="{2A1DB633-BE6B-4232-85E8-5E4EBB41F812}">
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1294,7 +1745,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1575,23 +2026,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="26.77734375" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="16384" width="26.75" style="1"/>
+    <col min="1" max="16384" width="26.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1609,1483 +2060,1838 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>136</v>
+      <c r="B2" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>3</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>3</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>3</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>3</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>3</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>3</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>3</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>3</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>21</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>3</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>3</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>157</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>3</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>158</v>
+        <v>25</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>3</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>159</v>
+        <v>26</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>3</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>160</v>
+        <v>27</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>3</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>3</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>29</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>3</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>163</v>
+        <v>30</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>3</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>164</v>
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>3</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>165</v>
+        <v>32</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>3</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>166</v>
+        <v>33</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>34</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>3</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>168</v>
+        <v>35</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>3</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>169</v>
+        <v>36</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>3</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>37</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3</v>
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>171</v>
+        <v>38</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>3</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>172</v>
+        <v>39</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>3</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>173</v>
+        <v>40</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>3</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>174</v>
+        <v>41</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>3</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>42</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>175</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>177</v>
+        <v>43</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>175</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>178</v>
+        <v>44</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>219</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>175</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>179</v>
+        <v>45</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>175</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>180</v>
+        <v>46</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>175</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>181</v>
+        <v>47</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>221</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>175</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>175</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>175</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>175</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>175</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>175</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>175</v>
+        <v>385</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>175</v>
+        <v>386</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>175</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>175</v>
+        <v>388</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>175</v>
+        <v>389</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>175</v>
+        <v>390</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>175</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>175</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>175</v>
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>175</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>175</v>
+        <v>396</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>175</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>175</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>175</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>175</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>175</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>175</v>
+        <v>403</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>175</v>
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>175</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>175</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>175</v>
+        <v>407</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>212</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>212</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>212</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>212</v>
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>212</v>
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>212</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>212</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>212</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>212</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>212</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>212</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>212</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>212</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>212</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>212</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>212</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>212</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>212</v>
+        <v>425</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>212</v>
+        <v>426</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>212</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>212</v>
+        <v>428</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>212</v>
+        <v>429</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>212</v>
+        <v>430</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>212</v>
+        <v>431</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>212</v>
+        <v>432</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>212</v>
+        <v>433</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>212</v>
+        <v>434</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>212</v>
+        <v>435</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>212</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>212</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>212</v>
+        <v>438</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>212</v>
+        <v>439</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>212</v>
+        <v>440</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>212</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>212</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>212</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>212</v>
+        <v>444</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>212</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>212</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>212</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>212</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>212</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>270</v>
+        <v>451</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>257</v>
+        <v>149</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>270</v>
+        <v>452</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>270</v>
+        <v>453</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>270</v>
+        <v>454</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>260</v>
+        <v>135</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>270</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>261</v>
+        <v>136</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>270</v>
+        <v>456</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>270</v>
+        <v>457</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>263</v>
+        <v>138</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>270</v>
+        <v>458</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>270</v>
+        <v>459</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>270</v>
+        <v>460</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>266</v>
+        <v>141</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>270</v>
+        <v>461</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>270</v>
+        <v>462</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>270</v>
+        <v>463</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>270</v>
+        <v>464</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="3"/>
+      <c r="A134" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="3"/>
+      <c r="A135" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="3"/>
+      <c r="A136" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="3"/>
+      <c r="A137" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="3"/>
+      <c r="A138" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="3"/>
+      <c r="A139" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="3"/>
+      <c r="A140" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="3"/>
+      <c r="A141" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="3"/>
+      <c r="A142" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="3"/>
+      <c r="A143" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyentc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguyentc\Documents\GitHub\lottery\server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A93601-F007-41A7-8156-9FE220768D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B16D5A-2BBF-4A98-9DFD-C3292598E408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="288">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,6 +892,9 @@
   </si>
   <si>
     <t>部门</t>
+  </si>
+  <si>
+    <t>Lucky</t>
   </si>
 </sst>
 </file>
@@ -1309,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.77734375" defaultRowHeight="15.6"/>
@@ -1336,6 +1339,9 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
@@ -1344,6 +1350,9 @@
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1352,6 +1361,9 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
@@ -1360,6 +1372,9 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
@@ -1368,6 +1383,9 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
@@ -1376,6 +1394,9 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
@@ -1384,6 +1405,9 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
@@ -1392,6 +1416,9 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
@@ -1400,6 +1427,9 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
@@ -1408,6 +1438,9 @@
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
@@ -1416,6 +1449,9 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
@@ -1424,6 +1460,9 @@
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
@@ -1432,6 +1471,9 @@
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -1440,6 +1482,9 @@
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
@@ -1448,1037 +1493,1427 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>179</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>184</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>185</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
         <v>234</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
         <v>235</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="2" t="s">
         <v>238</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
         <v>240</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
         <v>241</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
         <v>242</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="2" t="s">
         <v>243</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
         <v>244</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
         <v>246</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
         <v>248</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
         <v>249</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
         <v>250</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="2" t="s">
         <v>251</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
         <v>252</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
         <v>253</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
         <v>254</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
         <v>257</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
         <v>259</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
         <v>260</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
         <v>263</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
         <v>265</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
         <v>266</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
         <v>268</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="2" t="s">
         <v>270</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
         <v>272</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
         <v>276</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
         <v>277</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
         <v>278</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
         <v>284</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>142</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
